--- a/sriramModel-nelson-melancholic-patientID_17-sims-gr-5-iterations-p_stress.xlsx
+++ b/sriramModel-nelson-melancholic-patientID_17-sims-gr-5-iterations-p_stress.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.045903906777953</v>
+        <v>2.055035142605703</v>
       </c>
       <c r="C2">
-        <v>2.041314982228747</v>
+        <v>2.057142006172067</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>2.055174823119287</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>2.046268819531224</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>2.038753973316179</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.09093520925315</v>
+        <v>2.108438574704587</v>
       </c>
       <c r="C3">
-        <v>2.081327846542326</v>
+        <v>2.111713102136199</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>2.108470829566782</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>2.090651635257518</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>2.077865102617392</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.135175950738001</v>
+        <v>2.160300585499314</v>
       </c>
       <c r="C4">
-        <v>2.120116337095653</v>
+        <v>2.163885541303512</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2.160007983917528</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>2.133254546973153</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>2.117392463804023</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.178703199762993</v>
+        <v>2.210709668023912</v>
       </c>
       <c r="C5">
-        <v>2.157756817922739</v>
+        <v>2.213821048743749</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2.209901509541532</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>2.174180577738012</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>2.15738417481426</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.221589337351026</v>
+        <v>2.259752652450581</v>
       </c>
       <c r="C6">
-        <v>2.19432434457467</v>
+        <v>2.261672165515438</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2.258262385995552</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>2.213529926980154</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>2.197877232607813</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.263902356793553</v>
+        <v>2.307514766655545</v>
       </c>
       <c r="C7">
-        <v>2.229892735302554</v>
+        <v>2.30758292703687</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>2.305197617004474</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>2.251400185045622</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>2.238897349500493</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.305706163738348</v>
+        <v>2.354079691761279</v>
       </c>
       <c r="C8">
-        <v>2.264534644093193</v>
+        <v>2.351689434432979</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>2.350810402686643</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>2.287886370706735</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>2.280459533513553</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.347060874928473</v>
+        <v>2.399529636222836</v>
       </c>
       <c r="C9">
-        <v>2.298321638511553</v>
+        <v>2.394120499629423</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>2.39520036706622</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>2.323081026441602</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>2.322568708408344</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.388023110785602</v>
+        <v>2.443945388533111</v>
       </c>
       <c r="C10">
-        <v>2.331324280597498</v>
+        <v>2.434998230648573</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>2.438463750551793</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>2.357074322981404</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>2.365220712997479</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.428646278049976</v>
+        <v>2.487406372002176</v>
       </c>
       <c r="C11">
-        <v>2.363612213078962</v>
+        <v>2.474438517210678</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>2.480693602806483</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2.38995416265103</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>2.408403659829866</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.468980840166708</v>
+        <v>2.529990702441698</v>
       </c>
       <c r="C12">
-        <v>2.395254251856158</v>
+        <v>2.512551488049156</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>2.521979950431159</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>2.421806275426563</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>2.452099379066984</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.509074573412434</v>
+        <v>2.571775243741437</v>
       </c>
       <c r="C13">
-        <v>2.426318484930528</v>
+        <v>2.549441912278248</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>2.56240996129667</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>2.452714311166026</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>2.496284967944602</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.54897280755841</v>
+        <v>2.61283566193277</v>
       </c>
       <c r="C14">
-        <v>2.456872379088014</v>
+        <v>2.585209578059851</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>2.602068106914249</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>2.482759941522491</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>2.540934378915105</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.588718650173888</v>
+        <v>2.653246476538918</v>
       </c>
       <c r="C15">
-        <v>2.486982895172753</v>
+        <v>2.619949639345098</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>2.641036306166877</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>2.512022960867261</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>2.586019911629294</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.628353194229408</v>
+        <v>2.693081110493788</v>
       </c>
       <c r="C16">
-        <v>2.516716611874052</v>
+        <v>2.653752930756132</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>2.679394063980995</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>2.540581384168611</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>2.631513545210381</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.667915708892362</v>
+        <v>2.732411939759193</v>
       </c>
       <c r="C17">
-        <v>2.546139860191282</v>
+        <v>2.68670625422302</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>2.717218591388139</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>2.56851154932154</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>2.677388079219561</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.707443813653635</v>
+        <v>2.771310342034005</v>
       </c>
       <c r="C18">
-        <v>2.575318868699125</v>
+        <v>2.718892641324133</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>2.754584941981124</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>2.595888210106735</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>2.723618068620634</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.74697363619836</v>
+        <v>2.809846744546739</v>
       </c>
       <c r="C19">
-        <v>2.604319921006005</v>
+        <v>2.750391594244021</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>2.791566139468773</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>2.62278463898614</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>2.770180521977271</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.786539954475606</v>
+        <v>2.848090670488125</v>
       </c>
       <c r="C20">
-        <v>2.633209526637532</v>
+        <v>2.78127930758436</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>2.828233286619939</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>2.649272735022581</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>2.817055396361812</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.826176323565677</v>
+        <v>2.886110784442922</v>
       </c>
       <c r="C21">
-        <v>2.662054606286183</v>
+        <v>2.81162887315482</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>2.864655663825121</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>2.6754231488206</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>2.864225904513582</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.865915188042294</v>
+        <v>2.923974937017249</v>
       </c>
       <c r="C22">
-        <v>2.690922693556133</v>
+        <v>2.841510469928398</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>2.900900827418726</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>2.701305375357814</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>2.911678652724691</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.905787980442042</v>
+        <v>2.961750208974545</v>
       </c>
       <c r="C23">
-        <v>2.719882153533345</v>
+        <v>2.870991541335244</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>2.937034708339665</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>2.726987857773016</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>2.959403657223899</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.945825206559182</v>
+        <v>2.99950295384906</v>
       </c>
       <c r="C24">
-        <v>2.749002421301684</v>
+        <v>2.900136962474535</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>2.973121707917319</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>2.75253810182041</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>3.007394247651093</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.986056518221787</v>
+        <v>3.037298839708352</v>
       </c>
       <c r="C25">
-        <v>2.77835425996066</v>
+        <v>2.929009181729651</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>3.009224786287008</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>2.778022794455817</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>3.055646897401645</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>3.026510774108476</v>
+        <v>3.075202889822292</v>
       </c>
       <c r="C26">
-        <v>2.808010041910998</v>
+        <v>2.957668417857358</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>3.045405544809513</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>2.803507927016881</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>3.104161000009083</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>3.067216089190565</v>
+        <v>3.113279522005165</v>
       </c>
       <c r="C27">
-        <v>2.838044051950353</v>
+        <v>2.986172780179287</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>3.081724304777005</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>2.829058921611353</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>3.152938605078634</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>3.108199873245717</v>
+        <v>3.151592586248165</v>
       </c>
       <c r="C28">
-        <v>2.868532815667232</v>
+        <v>3.014578377111651</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>3.118240184131763</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>2.85474076237966</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>3.201984133770632</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>3.149488858794531</v>
+        <v>3.190205400200913</v>
       </c>
       <c r="C29">
-        <v>2.899555450620942</v>
+        <v>3.042939514751995</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>3.155011171801343</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>2.880618131648034</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>3.251304081165792</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>3.191109118774042</v>
+        <v>3.22918078195587</v>
       </c>
       <c r="C30">
-        <v>2.93119404070851</v>
+        <v>3.071308842831695</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>3.192094197905144</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>2.906755556335819</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>3.300906712566849</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>3.233086074090884</v>
+        <v>3.268581079376613</v>
       </c>
       <c r="C31">
-        <v>2.96353403178235</v>
+        <v>3.099737478937022</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>3.229545200118146</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>2.933217563095689</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>3.350801759510852</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>3.275444491108528</v>
+        <v>3.308468194874199</v>
       </c>
       <c r="C32">
-        <v>2.996664639769635</v>
+        <v>3.128275176906247</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>3.267419186688749</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>2.960068843414033</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>3.401000116534141</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>3.318208469050116</v>
+        <v>3.34890360437916</v>
       </c>
       <c r="C33">
-        <v>3.030679266347245</v>
+        <v>3.156970509336254</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>3.305770296078971</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>2.987374428709866</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>3.451513540736842</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>3.361401417117625</v>
+        <v>3.389948368816217</v>
       </c>
       <c r="C34">
-        <v>3.065675907833433</v>
+        <v>3.185871050398459</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>3.344651852705996</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>3.015199877329434</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>3.50235435260045</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>3.40504602108589</v>
+        <v>3.431663136036597</v>
       </c>
       <c r="C35">
-        <v>3.101757537276034</v>
+        <v>3.215023572593637</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>3.384116418097559</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>3.043611475865768</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>3.55353513739304</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>3.449164199048302</v>
+        <v>3.474108130730412</v>
       </c>
       <c r="C36">
-        <v>3.139032433373222</v>
+        <v>3.244474260310577</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>3.424215836744763</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>3.072676452809298</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>3.605068446402612</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>3.493777045837379</v>
+        <v>3.517343129716405</v>
       </c>
       <c r="C37">
-        <v>3.177614418503534</v>
+        <v>3.274268963434495</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>3.465001275836122</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>3.102463206788469</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>3.656966496290092</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>3.538904765760235</v>
+        <v>3.561427415898278</v>
       </c>
       <c r="C38">
-        <v>3.217622955650115</v>
+        <v>3.304453481296305</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>3.506523257833145</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>3.133041548587847</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>3.709240865941083</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>3.584566593173823</v>
+        <v>3.606419713467573</v>
       </c>
       <c r="C39">
-        <v>3.259183038837295</v>
+        <v>3.335073856634707</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>3.548831684563467</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>3.164482956500319</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>3.761902192675417</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>3.630780700559223</v>
+        <v>3.652378093052801</v>
       </c>
       <c r="C40">
-        <v>3.302424801488706</v>
+        <v>3.366176705066368</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>3.591975851243964</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>3.196860839980573</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>3.814959869440207</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>3.677564093886919</v>
+        <v>3.699359843362394</v>
       </c>
       <c r="C41">
-        <v>3.347482741409756</v>
+        <v>3.397809586756421</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>3.636004448527613</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>3.230250814572396</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>3.868421747190277</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>3.724932495371043</v>
+        <v>3.747421306014577</v>
       </c>
       <c r="C42">
-        <v>3.394494459406133</v>
+        <v>3.430021416725455</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>3.680965551037502</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>3.264730975516481</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>3.922293848540299</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>3.772900213998745</v>
+        <v>3.796617661121487</v>
       </c>
       <c r="C43">
-        <v>3.443598798789392</v>
+        <v>3.462862905662639</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>3.726906589870619</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>3.300382163881267</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>3.976580101919965</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>3.821480004824017</v>
+        <v>3.84700265769239</v>
       </c>
       <c r="C44">
-        <v>3.494933287109287</v>
+        <v>3.496387025563983</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>3.77387430970902</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>3.337288213072761</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>4.031282104474881</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>3.870682918586101</v>
+        <v>3.898628302888005</v>
       </c>
       <c r="C45">
-        <v>3.548630814282224</v>
+        <v>3.530649497357035</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>3.821914696106287</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>3.375536157929779</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>4.086398926005228</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>3.920518143999766</v>
+        <v>3.951544475544622</v>
       </c>
       <c r="C46">
-        <v>3.604815546009846</v>
+        <v>3.565709279734508</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>3.871072891377887</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>3.415216379038156</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>4.141926964958738</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>3.970992846149401</v>
+        <v>4.005798475577391</v>
       </c>
       <c r="C47">
-        <v>3.663598169050453</v>
+        <v>3.601629022407982</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>3.921393086626427</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>3.456422673382743</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>4.197859862180811</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>4.022112005092164</v>
+        <v>4.061434509241834</v>
       </c>
       <c r="C48">
-        <v>3.725070696225306</v>
+        <v>3.638475453749384</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>3.972918386391493</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>3.499252169484972</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>4.254188482888336</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>4.073878260034533</v>
+        <v>4.1184931088241</v>
       </c>
       <c r="C49">
-        <v>3.789301200710469</v>
+        <v>3.676319634879015</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>4.025690650257568</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>3.54380510836479</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>4.310900972810345</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>4.126291765178587</v>
+        <v>4.1770104930632</v>
       </c>
       <c r="C50">
-        <v>3.856328980942838</v>
+        <v>3.715236999007041</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>4.079750315304672</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>3.590184308466014</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>4.367982873469275</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>4.179350064038627</v>
+        <v>4.237017878554893</v>
       </c>
       <c r="C51">
-        <v>3.92616072435424</v>
+        <v>3.755307048716807</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>4.135136199449954</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>3.63849432585361</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>4.425417302210334</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>4.233047989301181</v>
+        <v>4.298540759495828</v>
       </c>
       <c r="C52">
-        <v>3.998768213964464</v>
+        <v>3.796612609287873</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>4.191885290168183</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>3.688840369357477</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>4.483185186263481</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>4.287377827622684</v>
+        <v>4.361598387127049</v>
       </c>
       <c r="C53">
-        <v>4.074088383689257</v>
+        <v>3.839238550999451</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>4.250032858499821</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>3.741327146114971</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>4.541265581098631</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>4.34233166046774</v>
+        <v>4.426205220947987</v>
       </c>
       <c r="C54">
-        <v>4.152029182847266</v>
+        <v>3.883271114531023</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>4.309615579480526</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>3.796061798599095</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>4.599636465918319</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>4.397903000856971</v>
+        <v>4.492371574624421</v>
       </c>
       <c r="C55">
-        <v>4.232476100022478</v>
+        <v>3.928795648660471</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>4.370673546574432</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>3.853155367537064</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>4.658275281587631</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>4.454085833047975</v>
+        <v>4.560101872025315</v>
       </c>
       <c r="C56">
-        <v>4.315295401755845</v>
+        <v>3.975891307424196</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>4.43324846503424</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>3.912717986864826</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>4.717158912984662</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>4.510873590018861</v>
+        <v>4.629393007662884</v>
       </c>
       <c r="C57">
-        <v>4.400337855365348</v>
+        <v>4.024624678880632</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>4.497381729249408</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>3.974853121274362</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>4.776263704558167</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>4.568258332620061</v>
+        <v>4.700233103549463</v>
       </c>
       <c r="C58">
-        <v>4.48744294342383</v>
+        <v>4.075042678976571</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>4.563112713255791</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>4.039651461847667</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>4.835565543903265</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>4.626230130517611</v>
+        <v>4.772600651810595</v>
       </c>
       <c r="C59">
-        <v>4.576443195934894</v>
+        <v>4.127165194701466</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>4.630477356729837</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>4.107184778986141</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>4.895039989463484</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>4.684776636516242</v>
+        <v>4.846464095302083</v>
       </c>
       <c r="C60">
-        <v>4.667168342238355</v>
+        <v>4.180978222622212</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>4.699506980653644</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>4.177500190377319</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>4.954662418940698</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>4.743882838815994</v>
+        <v>4.921781788381769</v>
       </c>
       <c r="C61">
-        <v>4.759449056173204</v>
+        <v>4.236428594448138</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>4.770227321317772</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>4.250615213877005</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>5.014408186006668</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>4.803530970059251</v>
+        <v>4.998502342822921</v>
       </c>
       <c r="C62">
-        <v>4.853120132268665</v>
+        <v>4.293421141321337</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>4.84265775645132</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>4.326514186538492</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>5.074252775243137</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>4.863700548815407</v>
+        <v>5.0765653070362</v>
       </c>
       <c r="C63">
-        <v>4.948022995489169</v>
+        <v>4.351819388173275</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>4.916810681251454</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>4.405146449799227</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>5.134171943748323</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>4.924368526825043</v>
+        <v>5.155902128815784</v>
       </c>
       <c r="C64">
-        <v>5.044007514925954</v>
+        <v>4.411449854133037</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>4.992691000947134</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>4.486426581372811</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>5.194141849144622</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>4.985509516061898</v>
+        <v>5.236437334771231</v>
       </c>
       <c r="C65">
-        <v>5.140933155697208</v>
+        <v>4.472109624192028</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>5.070295710698625</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>4.570236711910949</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>5.254139161559062</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>5.047096070953241</v>
+        <v>5.318089856476939</v>
       </c>
       <c r="C66">
-        <v>5.238669552583413</v>
+        <v>4.533576153820649</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>5.149613546710372</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>4.656430690907519</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>5.314141156292101</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>5.109099003996629</v>
+        <v>5.40077442989456</v>
       </c>
       <c r="C67">
-        <v>5.337096617036967</v>
+        <v>4.595617890694256</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>5.230624703870957</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>4.744839652434616</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>5.374125790113966</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5.171487716251062</v>
+        <v>5.484402999614206</v>
       </c>
       <c r="C68">
-        <v>5.43610429643643</v>
+        <v>4.658004339534613</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>5.313300628290716</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>4.8352783695666</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>5.434071761072286</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5.234230527789443</v>
+        <v>5.568886066960037</v>
       </c>
       <c r="C69">
-        <v>5.53559209594563</v>
+        <v>4.72051450112704</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>5.397603902109599</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>4.927551768350305</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>5.493958553697646</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>5.297294996696119</v>
+        <v>5.654133932657399</v>
       </c>
       <c r="C70">
-        <v>5.635468455782304</v>
+        <v>4.782943128533101</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>5.483488243985995</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>5.021461040592656</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>5.553766471089588</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>5.360648218392463</v>
+        <v>5.740057803811772</v>
       </c>
       <c r="C71">
-        <v>5.73565005623543</v>
+        <v>4.845104692755624</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>5.570898649215558</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>5.116808946401248</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>5.613476655601367</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5.424257099879229</v>
+        <v>5.826570735272501</v>
       </c>
       <c r="C72">
-        <v>5.836061102801641</v>
+        <v>4.90683529446217</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>5.659771690702783</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>5.213404074293646</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>5.673071099778459</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5.488088605754649</v>
+        <v>5.913588397444804</v>
       </c>
       <c r="C73">
-        <v>5.936632626954507</v>
+        <v>4.96799302773803</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>5.75003599097502</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>5.311063991768053</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>5.732532649049811</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5.552109974715533</v>
+        <v>6.001029683128822</v>
       </c>
       <c r="C74">
-        <v>6.037301824686503</v>
+        <v>5.028457157158272</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>5.841612864119506</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>5.409617343919686</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>5.791844997509591</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5.616288906616794</v>
+        <v>6.08881715376064</v>
       </c>
       <c r="C75">
-        <v>6.138011445074254</v>
+        <v>5.088126549574783</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>5.934417132120115</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>5.508905044114889</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>5.850992678065844</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5.680593721134221</v>
+        <v>6.176877339852254</v>
       </c>
       <c r="C76">
-        <v>6.238709234185157</v>
+        <v>5.146917789081714</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>6.028358077261611</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>5.608780763858148</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>5.909961047888863</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5.744993489830466</v>
+        <v>6.265140921456281</v>
       </c>
       <c r="C77">
-        <v>6.33934743504089</v>
+        <v>5.204763183102826</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>6.123340500651526</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>5.709110815424726</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>5.96873627060884</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5.809458143721655</v>
+        <v>6.353542804032179</v>
       </c>
       <c r="C78">
-        <v>6.439882341489279</v>
+        <v>5.261608754845771</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>6.219265859211514</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>5.809773697121479</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>6.027305295396634</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5.873958558541692</v>
+        <v>6.442022108758063</v>
       </c>
       <c r="C79">
-        <v>6.540273902215075</v>
+        <v>5.317412384190345</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>6.316033429931192</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>5.910659396495185</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>6.085655833510573</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5.938466620457259</v>
+        <v>6.530522099313241</v>
       </c>
       <c r="C80">
-        <v>6.640485370298336</v>
+        <v>5.372142129561781</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>6.413541462253279</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>6.011668540486744</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>6.143776333657782</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6.002955274267395</v>
+        <v>6.618990057838968</v>
       </c>
       <c r="C81">
-        <v>6.740482993511394</v>
+        <v>5.425774735265671</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>6.511688281661565</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>6.112711498226782</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>6.201655956580659</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6.067398556562551</v>
+        <v>6.707377125999072</v>
       </c>
       <c r="C82">
-        <v>6.840235740757701</v>
+        <v>5.478294330854851</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>6.610373310321055</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>6.213707483085428</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>6.259284548503347</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6.131771615830488</v>
+        <v>6.795638122583771</v>
       </c>
       <c r="C83">
-        <v>6.939715060049006</v>
+        <v>5.529691313252402</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>6.70949798224864</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>6.314583686723909</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>6.31665261417935</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6.196050721471654</v>
+        <v>6.883731346415216</v>
       </c>
       <c r="C84">
-        <v>7.038894664151042</v>
+        <v>5.579961382078666</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>6.80896653349915</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>6.415274470608773</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>6.373751289938535</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6.26021326347001</v>
+        <v>6.971618372863104</v>
       </c>
       <c r="C85">
-        <v>7.137750340249832</v>
+        <v>5.629104720720181</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>6.908686662197686</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>6.515720623831533</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>6.430572316955325</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6.324237743703259</v>
+        <v>7.059263808828331</v>
       </c>
       <c r="C86">
-        <v>7.236259780882074</v>
+        <v>5.677125298222684</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>7.008570059096628</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>6.615868624081624</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>6.487108009085607</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6.388103762059852</v>
+        <v>7.146635291546949</v>
       </c>
       <c r="C87">
-        <v>7.334402431077319</v>
+        <v>5.724030307668052</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>7.108532804773506</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>6.715670371153386</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>6.543351264983444</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6.451791993453043</v>
+        <v>7.233702925167121</v>
       </c>
       <c r="C88">
-        <v>7.4321593546917</v>
+        <v>5.769829573974211</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>7.208495637608991</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>6.815082043796758</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>6.599295462130646</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6.515284166069056</v>
+        <v>7.320439430462914</v>
       </c>
       <c r="C89">
-        <v>7.529513111698208</v>
+        <v>5.814535140849335</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>7.308384166280334</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>6.914064145694135</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>6.654934499700824</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6.578563034358886</v>
+        <v>7.406819764133523</v>
       </c>
       <c r="C90">
-        <v>7.626447648058121</v>
+        <v>5.858160971207957</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>7.408128673792327</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>7.012580807137117</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>6.710262769528769</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6.641612348975423</v>
+        <v>7.492820998400188</v>
       </c>
       <c r="C91">
-        <v>7.722948196619474</v>
+        <v>5.900722606535783</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>7.507664509746754</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>7.110599583912253</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>6.765275083238876</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6.704416825430906</v>
+        <v>7.578422298266561</v>
       </c>
       <c r="C92">
-        <v>7.819001185085809</v>
+        <v>5.942236834653925</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>7.606931928235224</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>7.208091104243646</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>6.8199666975171</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6.766962111052966</v>
+        <v>7.663604646970573</v>
       </c>
       <c r="C93">
-        <v>7.914594155417655</v>
+        <v>5.982721480468699</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>7.705875792370356</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>7.305028704556947</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>6.874333298832978</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6.8292347509725</v>
+        <v>7.748350699038547</v>
       </c>
       <c r="C94">
-        <v>8.009715687426791</v>
+        <v>6.022195289310108</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>7.80444547627657</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>7.401388190985771</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>6.928370958173955</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6.891222153683739</v>
+        <v>7.832644687586035</v>
       </c>
       <c r="C95">
-        <v>8.104355329437672</v>
+        <v>6.060677668579318</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>7.902594701514327</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>7.49714763887906</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>6.982076110658014</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6.952912556339705</v>
+        <v>7.916472321292201</v>
       </c>
       <c r="C96">
-        <v>8.198503535278951</v>
+        <v>6.098188538162185</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>8.000281335858796</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>7.59228722247587</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>7.035445538388673</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7.014294990174036</v>
+        <v>7.999820655914956</v>
       </c>
       <c r="C97">
-        <v>8.292151605391743</v>
+        <v>6.134748206353208</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>8.097467140564495</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>7.686789018537598</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>7.088476351894662</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7.075359246254285</v>
+        <v>8.082677996384106</v>
       </c>
       <c r="C98">
-        <v>8.385291632488332</v>
+        <v>6.170377246305102</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>8.194117517988573</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>7.780636821326039</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>7.141165980577929</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7.136095841738076</v>
+        <v>8.165033800208187</v>
       </c>
       <c r="C99">
-        <v>8.477916451310556</v>
+        <v>6.205096435550693</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>8.290201285377625</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>7.873815990014116</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>7.193512140436801</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7.196495986776993</v>
+        <v>8.246878678845929</v>
       </c>
       <c r="C100">
-        <v>8.570019592004982</v>
+        <v>6.238926651444366</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>8.385690456954084</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>7.966313335053891</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>7.245512854861545</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7.25655155221666</v>
+        <v>8.328204169130348</v>
       </c>
       <c r="C101">
-        <v>8.661595236781023</v>
+        <v>6.271888795561666</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>8.480560025391455</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>8.058117020119571</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>7.297166393103474</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7.316255038127486</v>
+        <v>8.409002776416884</v>
       </c>
       <c r="C102">
-        <v>8.752638179379375</v>
+        <v>6.30400377794482</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>8.574787742560115</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>8.149216473221323</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>7.34847128382585</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7.375599543307598</v>
+        <v>8.489267822191922</v>
       </c>
       <c r="C103">
-        <v>8.8431437873696</v>
+        <v>6.335292337413078</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>8.668353911372154</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>8.239602274919402</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>7.399426286516468</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7.434578735720515</v>
+        <v>8.568993437441469</v>
       </c>
       <c r="C104">
-        <v>8.933107966939964</v>
+        <v>6.365775089013744</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>8.761241177265108</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>8.329266064096746</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>7.450030380606475</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7.493186823995549</v>
+        <v>8.648174483383752</v>
       </c>
       <c r="C105">
-        <v>9.022527129799149</v>
+        <v>6.395472431283198</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>8.853434362074129</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>8.418200474658864</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>7.500282753438813</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7.551418529914571</v>
+        <v>8.726806525029481</v>
       </c>
       <c r="C106">
-        <v>9.111398162317592</v>
+        <v>6.4244045593939</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>8.944920257985311</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>8.506399032116432</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>7.550182794635778</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7.609269061981456</v>
+        <v>8.804885774050749</v>
       </c>
       <c r="C107">
-        <v>9.199718396541401</v>
+        <v>6.452591421053027</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>9.035687499536118</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>8.593856141380661</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>7.599730082010629</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7.666734089998674</v>
+        <v>8.882409038696023</v>
       </c>
       <c r="C108">
-        <v>9.287485582926406</v>
+        <v>6.480052686213646</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>9.125726402905741</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>8.680566959543356</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>7.648924370831386</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7.723809720716936</v>
+        <v>8.959373680352739</v>
       </c>
       <c r="C109">
-        <v>9.374697864819197</v>
+        <v>6.506807725160977</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>9.215028805353976</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>8.76652741712466</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>7.697765582430664</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7.780492474476612</v>
+        <v>9.03577758519606</v>
       </c>
       <c r="C110">
-        <v>9.46135375440519</v>
+        <v>6.532875590161803</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>9.303588000384366</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>8.85173410694099</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>7.746253794857777</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7.836779262877235</v>
+        <v>9.111619089147061</v>
       </c>
       <c r="C111">
-        <v>9.54745211007948</v>
+        <v>6.55827497713754</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>9.391398521451155</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>8.936184275875155</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>7.794389231367902</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7.892667367417066</v>
+        <v>9.186897003403246</v>
       </c>
       <c r="C112">
-        <v>9.632992115202896</v>
+        <v>6.583024268050666</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>9.478456135719028</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>9.019875763736618</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>7.842172257362944</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7.948154419098436</v>
+        <v>9.261610535393887</v>
       </c>
       <c r="C113">
-        <v>9.717973258022443</v>
+        <v>6.607141423881791</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>9.564757646047209</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>9.102806958749664</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>7.889603358962423</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>8.003238378969195</v>
+        <v>9.335759232335274</v>
       </c>
       <c r="C114">
-        <v>9.802395312801336</v>
+        <v>6.630644095397759</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>9.650300874315922</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>9.184976773359965</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>7.936683149573602</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>8.057917519554598</v>
+        <v>9.409343102213303</v>
       </c>
       <c r="C115">
-        <v>9.886258322039856</v>
+        <v>6.653549519320696</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>9.735084514052447</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>9.266384589744192</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>7.983412359281403</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>8.112190407188528</v>
+        <v>9.482362359710983</v>
       </c>
       <c r="C116">
-        <v>9.969562579658096</v>
+        <v>6.675874566181119</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>9.819108093462837</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>9.347030249584487</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>8.029791804682747</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>8.166055885155755</v>
+        <v>9.554817615872185</v>
       </c>
       <c r="C117">
-        <v>10.05230861519611</v>
+        <v>6.697635745284339</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>9.902371884817081</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>9.426914005502674</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>8.075822436299745</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>8.219513057700738</v>
+        <v>9.62670974750392</v>
       </c>
       <c r="C118">
-        <v>10.13449717888394</v>
+        <v>6.718849157697877</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>9.984876829919022</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>9.506036504633631</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>8.12150526557525</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>8.272561274791963</v>
+        <v>9.698039872101132</v>
       </c>
       <c r="C119">
-        <v>10.21612922753294</v>
+        <v>6.739530552695097</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>10.06662451241029</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>9.584398760338416</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>8.166841401904962</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>8.325200117541133</v>
+        <v>9.76880940725284</v>
       </c>
       <c r="C120">
-        <v>10.29720591126377</v>
+        <v>6.759695277232935</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>10.14761704887747</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>9.662002119704734</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>8.211832050082865</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>8.377429384429814</v>
+        <v>9.839019952404302</v>
       </c>
       <c r="C121">
-        <v>10.37772856094628</v>
+        <v>6.779358315581171</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>10.22785709345782</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>9.738848252504642</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>8.256478471506449</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>8.429249078317874</v>
+        <v>9.908673349340731</v>
       </c>
       <c r="C122">
-        <v>10.45769867634677</v>
+        <v>6.798534261423868</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>10.3073477388346</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>9.814939116800913</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>8.30078201272651</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>8.48065939405836</v>
+        <v>9.977771622809053</v>
       </c>
       <c r="C123">
-        <v>10.53711791502504</v>
+        <v>6.817237350242873</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>10.38609251584348</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>9.890276948717597</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>8.344744081396543</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>8.531660706671817</v>
+        <v>10.04631697508769</v>
       </c>
       <c r="C124">
-        <v>10.61598808167598</v>
+        <v>6.835481432993983</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>10.46409531926185</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>9.964864236333804</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>8.388366144663813</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>8.582253560109237</v>
+        <v>10.11431179434239</v>
       </c>
       <c r="C125">
-        <v>10.69431111806492</v>
+        <v>6.853280007726738</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>10.54136039414126</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>10.03870370456859</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>8.431649732861564</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>8.632438656664304</v>
+        <v>10.18175859311315</v>
       </c>
       <c r="C126">
-        <v>10.77208909371649</v>
+        <v>6.87064620997801</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>10.61789229183684</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>10.11179830084062</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>8.474596421419186</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>8.682216846969064</v>
+        <v>10.24866005884205</v>
       </c>
       <c r="C127">
-        <v>10.84932419710239</v>
+        <v>6.887592820462458</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>10.69369583579815</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>10.18415117202743</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>8.517207839428863</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>8.73158912043746</v>
+        <v>10.31501898773924</v>
       </c>
       <c r="C128">
-        <v>10.92601872723074</v>
+        <v>6.904132279781983</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>10.76877610823956</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>10.25576565895737</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>8.559485660622286</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>8.780556596238988</v>
+        <v>10.38083829964235</v>
       </c>
       <c r="C129">
-        <v>11.00217508566956</v>
+        <v>6.920276680691386</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>10.84313839992851</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>10.32664527384063</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>8.601431594774112</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>8.82912051474368</v>
+        <v>10.44612104383469</v>
       </c>
       <c r="C130">
-        <v>11.07779576903582</v>
+        <v>6.936037788499264</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>10.91678821313856</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>10.39679369343259</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>8.643047400251664</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>8.877282229429328</v>
+        <v>10.51087034666312</v>
       </c>
       <c r="C131">
-        <v>11.1528833619339</v>
+        <v>6.95142703605221</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>10.98973121452622</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>10.46621474289775</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>8.684334860348264</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>8.925043199218095</v>
+        <v>10.57508945198038</v>
       </c>
       <c r="C132">
-        <v>11.22744053030234</v>
+        <v>6.966455538096309</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>11.06197323558637</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>10.5349123848796</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>8.725295794684477</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>8.972404981220219</v>
+        <v>10.63878167239869</v>
       </c>
       <c r="C133">
-        <v>11.30147001512684</v>
+        <v>6.981134092674868</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>11.13352023807914</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>10.60289071088761</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>8.765932055654401</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>9.019369223867606</v>
+        <v>10.70195040295648</v>
       </c>
       <c r="C134">
-        <v>11.37497462650098</v>
+        <v>6.99547319288745</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>11.20437830735788</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>10.6701539262015</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>8.806245515954716</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>9.065937660420012</v>
+        <v>10.76459911510164</v>
       </c>
       <c r="C135">
-        <v>11.44795723797319</v>
+        <v>7.009483029585303</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>11.27455363224003</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>10.73670634597061</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>8.846238079108154</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>9.112112102824618</v>
+        <v>10.82673133139321</v>
       </c>
       <c r="C136">
-        <v>11.52042078127126</v>
+        <v>7.023173501208245</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>11.34405248871217</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>10.80255238093913</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>8.885911666407072</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>9.157894435910123</v>
+        <v>10.8883506469965</v>
       </c>
       <c r="C137">
-        <v>11.5923682413096</v>
+        <v>7.036554220264842</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>11.41288123399179</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>10.86769653256879</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>8.925268219181799</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>9.203286611898177</v>
+        <v>10.94946069392544</v>
       </c>
       <c r="C138">
-        <v>11.66380265147758</v>
+        <v>7.049634519293515</v>
       </c>
       <c r="D138">
-        <v>0</v>
+        <v>11.48104628299262</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>10.9321433830992</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>8.964309699610149</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>9.248290645216578</v>
+        <v>11.01006515598653</v>
       </c>
       <c r="C139">
-        <v>11.73472708919146</v>
+        <v>7.062423459597997</v>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>11.54855410978352</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>10.99589758771938</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>9.003038080911171</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>9.292908607599172</v>
+        <v>11.07016776141819</v>
       </c>
       <c r="C140">
-        <v>11.80514467169625</v>
+        <v>7.074929836767873</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>11.61541122560926</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>11.05896386944293</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>9.041455353473367</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>9.337142623457719</v>
+        <v>11.12977226392794</v>
       </c>
       <c r="C141">
-        <v>11.87505855210913</v>
+        <v>7.087162187957598</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>11.68162417910898</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>11.12134700911515</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>9.079563518639372</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>9.380994865511541</v>
+        <v>11.18888246182817</v>
       </c>
       <c r="C142">
-        <v>11.94447191569116</v>
+        <v>7.099128799416601</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>11.74719954027701</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>11.18305184266437</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>9.117364586153842</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>9.424467550661605</v>
+        <v>11.2475021684901</v>
       </c>
       <c r="C143">
-        <v>12.01338797633425</v>
+        <v>7.110837711326749</v>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>11.81214389727933</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>11.24408325210278</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>9.154860578890455</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>9.467562936096511</v>
+        <v>11.30563522528034</v>
       </c>
       <c r="C144">
-        <v>12.08180997325054</v>
+        <v>7.122296726878568</v>
       </c>
       <c r="D144">
-        <v>0</v>
+        <v>11.87646384726231</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>11.30444616194465</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>9.192053522492641</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>9.510283315618343</v>
+        <v>11.36328549377553</v>
       </c>
       <c r="C145">
-        <v>12.14974116785605</v>
+        <v>7.133513416373927</v>
       </c>
       <c r="D145">
-        <v>0</v>
+        <v>11.94016598863353</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>11.36414553325131</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>9.228945450732136</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>9.552631016176957</v>
+        <v>11.42045684558535</v>
       </c>
       <c r="C146">
-        <v>12.21718484081697</v>
+        <v>7.144495125337787</v>
       </c>
       <c r="D146">
-        <v>0</v>
+        <v>12.00325691856356</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>11.42318635815369</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>9.265538402863873</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>9.594608394601746</v>
+        <v>11.47715317273119</v>
       </c>
       <c r="C147">
-        <v>12.28414428930102</v>
+        <v>7.155248980048174</v>
       </c>
       <c r="D147">
-        <v>0</v>
+        <v>12.06574322259244</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>11.48157365854523</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>9.301834418812378</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>9.636217834520579</v>
+        <v>11.53337836825021</v>
       </c>
       <c r="C148">
-        <v>12.35062282436621</v>
+        <v>7.165781893495062</v>
       </c>
       <c r="D148">
-        <v>0</v>
+        <v>12.1276314776071</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>11.53931247452597</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>9.337835544555677</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>9.677461743456018</v>
+        <v>11.58913633578341</v>
       </c>
       <c r="C149">
-        <v>12.4166237685109</v>
+        <v>7.176100572619992</v>
       </c>
       <c r="D149">
-        <v>0</v>
+        <v>12.1889282327955</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>11.59640786688366</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>9.373543824085392</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>9.718342550089512</v>
+        <v>11.64443098254291</v>
       </c>
       <c r="C150">
-        <v>12.48215045336913</v>
+        <v>7.186211522164312</v>
       </c>
       <c r="D150">
-        <v>0</v>
+        <v>12.24964001980634</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>11.65286491299129</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>9.408961302442696</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>9.758862701684729</v>
+        <v>11.69926621317024</v>
       </c>
       <c r="C151">
-        <v>12.54720621754349</v>
+        <v>7.196121053401866</v>
       </c>
       <c r="D151">
-        <v>0</v>
+        <v>12.30977334584482</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>11.70868869091862</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>9.444090024889238</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>9.799024661661516</v>
+        <v>11.75364593668729</v>
       </c>
       <c r="C152">
-        <v>12.61179440456834</v>
+        <v>7.205835286113435</v>
       </c>
       <c r="D152">
-        <v>0</v>
+        <v>12.36933466946994</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>11.76388430149723</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>9.47893203285143</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>9.83883090731255</v>
+        <v>11.80757405257927</v>
       </c>
       <c r="C153">
-        <v>12.67591836099637</v>
+        <v>7.215360158398258</v>
       </c>
       <c r="D153">
-        <v>0</v>
+        <v>12.42833044069658</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>11.81845683813172</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>9.513489367464043</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>9.878283927655058</v>
+        <v>11.86105445839101</v>
       </c>
       <c r="C154">
-        <v>12.73958143460169</v>
+        <v>7.224701427530813</v>
       </c>
       <c r="D154">
-        <v>0</v>
+        <v>12.48676705463717</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>11.872411395325</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>9.547764065373828</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>9.917386221410407</v>
+        <v>11.91409104336702</v>
       </c>
       <c r="C155">
-        <v>12.80278697269338</v>
+        <v>7.233864679551917</v>
       </c>
       <c r="D155">
-        <v>0</v>
+        <v>12.54465086313281</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>11.92575307807017</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>9.581758158639298</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>9.956140295104742</v>
+        <v>11.96668768543622</v>
       </c>
       <c r="C156">
-        <v>12.86553832053588</v>
+        <v>7.242855331144109</v>
       </c>
       <c r="D156">
-        <v>0</v>
+        <v>12.6019881994863</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>11.97848697434142</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>9.615473676412901</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>9.994548661284169</v>
+        <v>12.01884825530305</v>
       </c>
       <c r="C157">
-        <v>12.92783881985658</v>
+        <v>7.251678636248164</v>
       </c>
       <c r="D157">
-        <v>0</v>
+        <v>12.65878532961901</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>12.03061817213702</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>9.64891264039386</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>10.03261383683833</v>
+        <v>12.07057660681527</v>
       </c>
       <c r="C158">
-        <v>12.9896918074662</v>
+        <v>7.260339691027589</v>
       </c>
       <c r="D158">
-        <v>0</v>
+        <v>12.71504848251899</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>12.08215175183579</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>9.682077067501732</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>10.07033834142658</v>
+        <v>12.12187658287977</v>
       </c>
       <c r="C159">
-        <v>13.05110061395294</v>
+        <v>7.268843437196185</v>
       </c>
       <c r="D159">
-        <v>0</v>
+        <v>12.77078384552344</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>12.13309277798132</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>9.714968968169899</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>10.10772469600133</v>
+        <v>12.17275200984118</v>
       </c>
       <c r="C160">
-        <v>13.11206856246423</v>
+        <v>7.277194669175621</v>
       </c>
       <c r="D160">
-        <v>0</v>
+        <v>12.82599754694624</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>12.18344630845864</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>9.74759034470457</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>10.14477542142254</v>
+        <v>12.22320669654278</v>
       </c>
       <c r="C161">
-        <v>13.17259896756758</v>
+        <v>7.285398035253326</v>
       </c>
       <c r="D161">
-        <v>0</v>
+        <v>12.88069567054843</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>12.23321738096334</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>9.779943193406517</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>10.18149303715997</v>
+        <v>12.27324443661357</v>
       </c>
       <c r="C162">
-        <v>13.23269513418608</v>
+        <v>7.293458045942503</v>
       </c>
       <c r="D162">
-        <v>0</v>
+        <v>12.93488424602586</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>12.28241101765556</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>9.812029501058587</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>10.21788006007703</v>
+        <v>12.32286900172685</v>
       </c>
       <c r="C163">
-        <v>13.29236035660452</v>
+        <v>7.301379073855846</v>
       </c>
       <c r="D163">
-        <v>0</v>
+        <v>12.98856924705862</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>12.33103222492227</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>9.843851246551299</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>10.25393900329233</v>
+        <v>12.37208414635791</v>
       </c>
       <c r="C164">
-        <v>13.35159791754239</v>
+        <v>7.309165362360737</v>
       </c>
       <c r="D164">
-        <v>0</v>
+        <v>13.04175660075535</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>12.37908598442992</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>9.87541040041266</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>10.28967237511469</v>
+        <v>12.42089360286019</v>
       </c>
       <c r="C165">
-        <v>13.41041108728986</v>
+        <v>7.316821025535325</v>
       </c>
       <c r="D165">
-        <v>0</v>
+        <v>13.0944521711419</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>12.42657726075688</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>9.906708922836145</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>10.32508267804752</v>
+        <v>12.46930108184958</v>
       </c>
       <c r="C166">
-        <v>13.4688031229036</v>
+        <v>7.324350055155445</v>
       </c>
       <c r="D166">
-        <v>0</v>
+        <v>13.14666176909083</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>12.47351099528982</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>9.937748765635266</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>10.36017240785885</v>
+        <v>12.51731027323709</v>
       </c>
       <c r="C167">
-        <v>13.52677726746022</v>
+        <v>7.331756322781762</v>
       </c>
       <c r="D167">
-        <v>0</v>
+        <v>13.19839115386122</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>12.51989210256187</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>9.968531869910297</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>10.39494405271496</v>
+        <v>12.56492484169395</v>
       </c>
       <c r="C168">
-        <v>13.58433674935715</v>
+        <v>7.339043583698163</v>
       </c>
       <c r="D168">
-        <v>0</v>
+        <v>13.24964602101061</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>12.56572547766764</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>9.99906016662184</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>10.4294000923945</v>
+        <v>12.61214843036283</v>
       </c>
       <c r="C169">
-        <v>13.64148478167368</v>
+        <v>7.346215481543267</v>
       </c>
       <c r="D169">
-        <v>0</v>
+        <v>13.30043201360211</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>12.61101598496716</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>10.02933557704075</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>10.46354299748277</v>
+        <v>12.65898465668239</v>
       </c>
       <c r="C170">
-        <v>13.69822456157244</v>
+        <v>7.353275549740436</v>
       </c>
       <c r="D170">
-        <v>0</v>
+        <v>13.35075471747838</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>12.65576846372552</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>10.0593600107678</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>10.49737522867535</v>
+        <v>12.7054371135542</v>
       </c>
       <c r="C171">
-        <v>13.75455926974768</v>
+        <v>7.360227217663106</v>
       </c>
       <c r="D171">
-        <v>0</v>
+        <v>13.40061965756835</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>12.69998772731684</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>10.08913536717582</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>10.53089923619278</v>
+        <v>12.75150936957267</v>
       </c>
       <c r="C172">
-        <v>13.81049206991605</v>
+        <v>7.36707381059649</v>
       </c>
       <c r="D172">
-        <v>0</v>
+        <v>13.45003230572595</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>12.74367855752219</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>10.1186635343701</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>10.56411745903759</v>
+        <v>12.79720496605517</v>
       </c>
       <c r="C173">
-        <v>13.86602610834757</v>
+        <v>7.373818556532802</v>
       </c>
       <c r="D173">
-        <v>0</v>
+        <v>13.49899807238995</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>12.78684570918464</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>10.14794638879016</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>10.59703232460413</v>
+        <v>12.84252741998755</v>
       </c>
       <c r="C174">
-        <v>13.92116451343437</v>
+        <v>7.380464583566214</v>
       </c>
       <c r="D174">
-        <v>0</v>
+        <v>13.5475223107496</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>12.82949390615068</v>
       </c>
       <c r="F174">
-        <v>0</v>
+        <v>10.17698579613254</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>10.62964624808684</v>
+        <v>12.88748022048337</v>
       </c>
       <c r="C175">
-        <v>13.97591039529526</v>
+        <v>7.387014930667169</v>
       </c>
       <c r="D175">
-        <v>0</v>
+        <v>13.59561031816687</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>12.87162784078966</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>10.20578360971987</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>10.66196163196277</v>
+        <v>12.93206683040068</v>
       </c>
       <c r="C176">
-        <v>14.03026684541394</v>
+        <v>7.393472547352503</v>
       </c>
       <c r="D176">
-        <v>0</v>
+        <v>13.64326733138669</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>12.91325217664305</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>10.23434167145074</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>10.69398086559659</v>
+        <v>12.97629068609103</v>
       </c>
       <c r="C177">
-        <v>14.08423693630918</v>
+        <v>7.399840290984877</v>
       </c>
       <c r="D177">
-        <v>0</v>
+        <v>13.69049853080597</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>12.95437154281683</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>10.26266181146795</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>10.72570632482094</v>
+        <v>13.02015519556431</v>
       </c>
       <c r="C178">
-        <v>14.13782372123558</v>
+        <v>7.406120936110755</v>
       </c>
       <c r="D178">
-        <v>0</v>
+        <v>13.73730903974566</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>12.99499053736258</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>10.29074584743052</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>10.75714037151647</v>
+        <v>13.06366374066827</v>
       </c>
       <c r="C179">
-        <v>14.1910302339288</v>
+        <v>7.412317181550433</v>
       </c>
       <c r="D179">
-        <v>0</v>
+        <v>13.78370392220881</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>13.03511372644201</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>10.31859558552232</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>10.78828535331859</v>
+        <v>13.10681967445304</v>
       </c>
       <c r="C180">
-        <v>14.24385948831729</v>
+        <v>7.41843164308156</v>
       </c>
       <c r="D180">
-        <v>0</v>
+        <v>13.82968818725024</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>13.07474564122237</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>10.34621281918098</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>10.81914360330405</v>
+        <v>13.14962632266799</v>
       </c>
       <c r="C181">
-        <v>14.29631447836543</v>
+        <v>7.42446684848112</v>
       </c>
       <c r="D181">
-        <v>0</v>
+        <v>13.87526678563869</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>13.11389078168004</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>10.37359932972833</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>10.84971743966404</v>
+        <v>13.19208698339073</v>
       </c>
       <c r="C182">
-        <v>14.3483981777663</v>
+        <v>7.430425268074563</v>
       </c>
       <c r="D182">
-        <v>0</v>
+        <v>13.92044461121375</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>13.15255361274764</v>
       </c>
       <c r="F182">
-        <v>0</v>
+        <v>10.40075688641089</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>10.88000916548333</v>
+        <v>13.23420492598795</v>
       </c>
       <c r="C183">
-        <v>14.40011353989132</v>
+        <v>7.436309296587114</v>
       </c>
       <c r="D183">
-        <v>0</v>
+        <v>13.96522650331492</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>13.19073856532808</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>10.4276872456465</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>10.91002106848848</v>
+        <v>13.27598339264814</v>
       </c>
       <c r="C184">
-        <v>14.45146349759316</v>
+        <v>7.44212124413097</v>
       </c>
       <c r="D184">
-        <v>0</v>
+        <v>14.00961724346064</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>13.22845003764433</v>
       </c>
       <c r="F184">
-        <v>0</v>
+        <v>10.45439215177921</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>10.93975542081769</v>
+        <v>13.31742559657829</v>
       </c>
       <c r="C185">
-        <v>14.50245096302942</v>
+        <v>7.447863367970077</v>
       </c>
       <c r="D185">
-        <v>0</v>
+        <v>14.05362155831504</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>13.26569239188465</v>
       </c>
       <c r="F185">
-        <v>0</v>
+        <v>10.48087333650745</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>10.96921447884822</v>
+        <v>13.35853472362052</v>
       </c>
       <c r="C186">
-        <v>14.55307882765626</v>
+        <v>7.453537857207969</v>
       </c>
       <c r="D186">
-        <v>0</v>
+        <v>14.09724411992759</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>13.30246995663203</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>10.50713251893191</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>10.99840048303466</v>
+        <v>13.39931393144867</v>
       </c>
       <c r="C187">
-        <v>14.60334996202123</v>
+        <v>7.459146832684527</v>
       </c>
       <c r="D187">
-        <v>0</v>
+        <v>14.14048954450584</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>13.3387870260187</v>
       </c>
       <c r="F187">
-        <v>0</v>
+        <v>10.53317140593216</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>11.02731565773098</v>
+        <v>13.43976634855163</v>
       </c>
       <c r="C188">
-        <v>14.65326721575108</v>
+        <v>7.4646923529512</v>
       </c>
       <c r="D188">
-        <v>0</v>
+        <v>14.18336239471112</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>13.37464785848001</v>
       </c>
       <c r="F188">
-        <v>0</v>
+        <v>10.5589916915021</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>11.05596221107445</v>
+        <v>13.47989507498512</v>
       </c>
       <c r="C189">
-        <v>14.70283341746698</v>
+        <v>7.470176422244425</v>
       </c>
       <c r="D189">
-        <v>0</v>
+        <v>14.22586717902725</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>13.41005667894815</v>
       </c>
       <c r="F189">
-        <v>0</v>
+        <v>10.584595057461</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>11.08434233487713</v>
+        <v>13.51970318598323</v>
       </c>
       <c r="C190">
-        <v>14.75205137468891</v>
+        <v>7.475600984498705</v>
       </c>
       <c r="D190">
-        <v>0</v>
+        <v>14.26800835209406</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>13.44501767633773</v>
       </c>
       <c r="F190">
-        <v>0</v>
+        <v>10.60998317304287</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>11.11245820450568</v>
+        <v>13.55919372497799</v>
       </c>
       <c r="C191">
-        <v>14.80092387388748</v>
+        <v>7.480967922400048</v>
       </c>
       <c r="D191">
-        <v>0</v>
+        <v>14.30979031635503</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>13.47953500488983</v>
       </c>
       <c r="F191">
-        <v>0</v>
+        <v>10.63515769455015</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>11.14031197880383</v>
+        <v>13.59836970742639</v>
       </c>
       <c r="C192">
-        <v>14.84945368038015</v>
+        <v>7.486279071516792</v>
       </c>
       <c r="D192">
-        <v>0</v>
+        <v>14.35121742092402</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>13.51361278459392</v>
       </c>
       <c r="F192">
-        <v>0</v>
+        <v>10.66012026566637</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>11.16790580003474</v>
+        <v>13.63723412130778</v>
       </c>
       <c r="C193">
-        <v>14.89764353838428</v>
+        <v>7.491536213473232</v>
       </c>
       <c r="D193">
-        <v>0</v>
+        <v>14.39229396309937</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>13.54725509950294</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>10.68487251851159</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>11.19524179380676</v>
+        <v>13.67578993139969</v>
       </c>
       <c r="C194">
-        <v>14.9454961709988</v>
+        <v>7.496741073775095</v>
       </c>
       <c r="D194">
-        <v>0</v>
+        <v>14.43302418899235</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>13.58046599943657</v>
       </c>
       <c r="F194">
-        <v>0</v>
+        <v>10.70941607202597</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>11.2223220690319</v>
+        <v>13.71404006828751</v>
       </c>
       <c r="C195">
-        <v>14.99301428018306</v>
+        <v>7.501895333648529</v>
       </c>
       <c r="D195">
-        <v>0</v>
+        <v>14.473412293091</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>13.61324949927664</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>10.7337525320753</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>11.24914871790736</v>
+        <v>13.75198743663013</v>
       </c>
       <c r="C196">
-        <v>15.04020054682647</v>
+        <v>7.507000627029629</v>
       </c>
       <c r="D196">
-        <v>0</v>
+        <v>14.51346241967345</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>13.64560957861522</v>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>10.7578834920714</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>11.27572381587989</v>
+        <v>13.78963491516453</v>
       </c>
       <c r="C197">
-        <v>15.08705763073721</v>
+        <v>7.512058538110781</v>
       </c>
       <c r="D197">
-        <v>0</v>
+        <v>14.55317866298507</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>13.67755018317744</v>
       </c>
       <c r="F197">
-        <v>0</v>
+        <v>10.78181053510587</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>11.30204942163335</v>
+        <v>13.82698535642398</v>
       </c>
       <c r="C198">
-        <v>15.13358817070722</v>
+        <v>7.517070604345869</v>
       </c>
       <c r="D198">
-        <v>0</v>
+        <v>14.59256506749128</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>13.70907522324692</v>
       </c>
       <c r="F198">
-        <v>0</v>
+        <v>10.80553523015816</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>11.32812757710182</v>
+        <v>13.86404158257027</v>
       </c>
       <c r="C199">
-        <v>15.17979478456425</v>
+        <v>7.522038325402677</v>
       </c>
       <c r="D199">
-        <v>0</v>
+        <v>14.63162562899165</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>13.74018857484032</v>
       </c>
       <c r="F199">
-        <v>0</v>
+        <v>10.82905913356812</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>11.35396030746651</v>
+        <v>13.90080638973922</v>
       </c>
       <c r="C200">
-        <v>15.2256800691933</v>
+        <v>7.526963156692713</v>
       </c>
       <c r="D200">
-        <v>0</v>
+        <v>14.67036429454355</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>13.77089407986976</v>
       </c>
       <c r="F200">
-        <v>0</v>
+        <v>10.85238378956335</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>11.3795496211674</v>
+        <v>13.93728254874351</v>
       </c>
       <c r="C201">
-        <v>15.27124660064904</v>
+        <v>7.531846507020775</v>
       </c>
       <c r="D201">
-        <v>0</v>
+        <v>14.70878496331533</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>13.8011955453979</v>
       </c>
       <c r="F201">
-        <v>0</v>
+        <v>10.87551073193739</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>11.40489750994277</v>
+        <v>13.97347280261151</v>
       </c>
       <c r="C202">
-        <v>15.31649693418439</v>
+        <v>7.536689752620874</v>
       </c>
       <c r="D202">
-        <v>0</v>
+        <v>14.74689148725428</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>13.83109674519607</v>
       </c>
       <c r="F202">
-        <v>0</v>
+        <v>10.89844148056956</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>11.43000594885244</v>
+        <v>14.00937986743321</v>
       </c>
       <c r="C203">
-        <v>15.36143360434638</v>
+        <v>7.541494229674275</v>
       </c>
       <c r="D203">
-        <v>0</v>
+        <v>14.78468767107331</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>13.86060141854363</v>
       </c>
       <c r="F203">
-        <v>0</v>
+        <v>10.92117754342679</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>11.45487689630972</v>
+        <v>14.04500643312747</v>
       </c>
       <c r="C204">
-        <v>15.40605912506007</v>
+        <v>7.546261232993467</v>
       </c>
       <c r="D204">
-        <v>0</v>
+        <v>14.82217727311456</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>13.88971327043331</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>10.94372041649613</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>11.47951229414195</v>
+        <v>14.08035516388895</v>
       </c>
       <c r="C205">
-        <v>15.45037598969214</v>
+        <v>7.550992024197051</v>
       </c>
       <c r="D205">
-        <v>0</v>
+        <v>14.85936400585657</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>13.91843597196267</v>
       </c>
       <c r="F205">
-        <v>0</v>
+        <v>10.9660715847248</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>11.50391406763471</v>
+        <v>14.11542869710737</v>
       </c>
       <c r="C206">
-        <v>15.49438667117419</v>
+        <v>7.555687830809142</v>
       </c>
       <c r="D206">
-        <v>0</v>
+        <v>14.89625153705222</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>13.94677316250646</v>
       </c>
       <c r="F206">
-        <v>0</v>
+        <v>10.98823252007322</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>11.5280841255817</v>
+        <v>14.15022964438071</v>
       </c>
       <c r="C207">
-        <v>15.53809362207471</v>
+        <v>7.560349844582582</v>
       </c>
       <c r="D207">
-        <v>0</v>
+        <v>14.93284348876126</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>13.97472844652962</v>
       </c>
       <c r="F207">
-        <v>0</v>
+        <v>11.01020468291863</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>11.55202436036106</v>
+        <v>14.18476059190362</v>
       </c>
       <c r="C208">
-        <v>15.58149927471114</v>
+        <v>7.564979222797826</v>
       </c>
       <c r="D208">
-        <v>0</v>
+        <v>14.96914343897045</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>14.00230539456162</v>
       </c>
       <c r="F208">
-        <v>0</v>
+        <v>11.03198952182112</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>11.57573664799641</v>
+        <v>14.21902410113222</v>
       </c>
       <c r="C209">
-        <v>15.62460604125974</v>
+        <v>7.569577094293871</v>
       </c>
       <c r="D209">
-        <v>0</v>
+        <v>15.00515492184348</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>14.02950754408599</v>
       </c>
       <c r="F209">
-        <v>0</v>
+        <v>11.05358847367167</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>11.59922284822303</v>
+        <v>14.25302270690224</v>
       </c>
       <c r="C210">
-        <v>15.66741631384662</v>
+        <v>7.574144556057989</v>
       </c>
       <c r="D210">
-        <v>0</v>
+        <v>15.0408814290402</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>14.05633840329682</v>
       </c>
       <c r="F210">
-        <v>0</v>
+        <v>11.07500296351187</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>11.62248480457494</v>
+        <v>14.28675891931343</v>
       </c>
       <c r="C211">
-        <v>15.70993246468151</v>
+        <v>7.578682671124792</v>
       </c>
       <c r="D211">
-        <v>0</v>
+        <v>15.07632640856529</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>14.08280144533803</v>
       </c>
       <c r="F211">
-        <v>0</v>
+        <v>11.0962344047544</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>11.64552434446036</v>
+        <v>14.32023522408162</v>
       </c>
       <c r="C212">
-        <v>15.75215684615711</v>
+        <v>7.583192478258034</v>
       </c>
       <c r="D212">
-        <v>0</v>
+        <v>15.11149326650361</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>14.1089001099317</v>
       </c>
       <c r="F212">
-        <v>0</v>
+        <v>11.11728419928608</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>11.6683432792408</v>
+        <v>14.35345408210456</v>
       </c>
       <c r="C213">
-        <v>15.79409179097261</v>
+        <v>7.587674987060676</v>
       </c>
       <c r="D213">
-        <v>0</v>
+        <v>15.14638536723455</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>14.13463780516682</v>
       </c>
       <c r="F213">
-        <v>0</v>
+        <v>11.13815373831186</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>11.69094340432656</v>
+        <v>14.38641792934339</v>
       </c>
       <c r="C214">
-        <v>15.83573961225935</v>
+        <v>7.592131177180308</v>
       </c>
       <c r="D214">
-        <v>0</v>
+        <v>15.18100603396563</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>14.16001790957572</v>
       </c>
       <c r="F214">
-        <v>0</v>
+        <v>11.15884440064827</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>11.71332649926365</v>
+        <v>14.41912917761461</v>
       </c>
       <c r="C215">
-        <v>15.87710260369164</v>
+        <v>7.596562003189299</v>
       </c>
       <c r="D215">
-        <v>0</v>
+        <v>15.21535854922724</v>
       </c>
       <c r="E215">
-        <v>0</v>
+        <v>14.18504376850967</v>
       </c>
       <c r="F215">
-        <v>0</v>
+        <v>11.17935755410624</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>11.73549432782315</v>
+        <v>14.45159021547645</v>
       </c>
       <c r="C216">
-        <v>15.91818303962618</v>
+        <v>7.600968395290763</v>
       </c>
       <c r="D216">
-        <v>0</v>
+        <v>15.24944615540871</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>14.20971869513162</v>
       </c>
       <c r="F216">
-        <v>0</v>
+        <v>11.19969455527957</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>11.75744863810321</v>
+        <v>14.48380340683718</v>
       </c>
       <c r="C217">
-        <v>15.95898317522008</v>
+        <v>7.605351257378818</v>
       </c>
       <c r="D217">
-        <v>0</v>
+        <v>15.28327205527615</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>14.23404597184077</v>
       </c>
       <c r="F217">
-        <v>0</v>
+        <v>11.21985674983802</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>11.77919116262497</v>
+        <v>14.51577109213803</v>
       </c>
       <c r="C218">
-        <v>15.99950524656223</v>
+        <v>7.609711467292777</v>
       </c>
       <c r="D218">
-        <v>0</v>
+        <v>15.31683941170449</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>14.25802885097156</v>
       </c>
       <c r="F218">
-        <v>0</v>
+        <v>11.2398454720175</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>11.80072361842985</v>
+        <v>14.54749558844797</v>
       </c>
       <c r="C219">
-        <v>16.03975147080831</v>
+        <v>7.614049882675748</v>
       </c>
       <c r="D219">
-        <v>0</v>
+        <v>15.35015134946923</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>14.28167055357635</v>
       </c>
       <c r="F219">
-        <v>0</v>
+        <v>11.25966204513968</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>11.8220477071866</v>
+        <v>14.57897918977102</v>
       </c>
       <c r="C220">
-        <v>16.07972404630503</v>
+        <v>7.618367337663261</v>
       </c>
       <c r="D220">
-        <v>0</v>
+        <v>15.38321095522134</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>14.304974269874</v>
       </c>
       <c r="F220">
-        <v>0</v>
+        <v>11.27930778168124</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>11.84316511529392</v>
+        <v>14.61022416691044</v>
       </c>
       <c r="C221">
-        <v>16.11942515273192</v>
+        <v>7.622664641072189</v>
       </c>
       <c r="D221">
-        <v>0</v>
+        <v>15.41602127784375</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>14.32794316000102</v>
       </c>
       <c r="F221">
-        <v>0</v>
+        <v>11.29878398357307</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>11.86407751398401</v>
+        <v>14.64123276793803</v>
       </c>
       <c r="C222">
-        <v>16.15885695123104</v>
+        <v>7.626942584001762</v>
       </c>
       <c r="D222">
-        <v>0</v>
+        <v>15.4485853282081</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>14.35058035377075</v>
       </c>
       <c r="F222">
-        <v>0</v>
+        <v>11.31809194155203</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>11.88478655943364</v>
+        <v>14.67200721838985</v>
       </c>
       <c r="C223">
-        <v>16.19802158454308</v>
+        <v>7.631201935973486</v>
       </c>
       <c r="D223">
-        <v>0</v>
+        <v>15.48090608079911</v>
       </c>
       <c r="E223">
-        <v>0</v>
+        <v>14.37288895121548</v>
       </c>
       <c r="F223">
-        <v>0</v>
+        <v>11.33723293582912</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>11.90529389287552</v>
+        <v>14.70254972145997</v>
       </c>
       <c r="C224">
-        <v>16.23692117714712</v>
+        <v>7.635443444839144</v>
       </c>
       <c r="D224">
-        <v>0</v>
+        <v>15.51298647418256</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>14.3948720227713</v>
       </c>
       <c r="F224">
-        <v>0</v>
+        <v>11.35620823600857</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>11.92560114069294</v>
+        <v>14.73286245811303</v>
       </c>
       <c r="C225">
-        <v>16.27555783539306</v>
+        <v>7.639667839337652</v>
       </c>
       <c r="D225">
-        <v>0</v>
+        <v>15.54482941092681</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>14.4165326093604</v>
       </c>
       <c r="F225">
-        <v>0</v>
+        <v>11.37501910116345</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>11.94570991455565</v>
+        <v>14.76294758739572</v>
       </c>
       <c r="C226">
-        <v>16.31393364764402</v>
+        <v>7.643875830496698</v>
       </c>
       <c r="D226">
-        <v>0</v>
+        <v>15.57643775743704</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>14.43787372386098</v>
       </c>
       <c r="F226">
-        <v>0</v>
+        <v>11.39366677992572</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>11.96562181149636</v>
+        <v>14.79280724662442</v>
       </c>
       <c r="C227">
-        <v>16.35205068441237</v>
+        <v>7.648068110110669</v>
       </c>
       <c r="D227">
-        <v>0</v>
+        <v>15.60781434520288</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>14.4588983497812</v>
       </c>
       <c r="F227">
-        <v>0</v>
+        <v>11.41215251055363</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>11.98533841405735</v>
+        <v>14.8224435515857</v>
       </c>
       <c r="C228">
-        <v>16.38991099849843</v>
+        <v>7.652245350603247</v>
       </c>
       <c r="D228">
-        <v>0</v>
+        <v>15.63896197202728</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>14.47960944156931</v>
       </c>
       <c r="F228">
-        <v>0</v>
+        <v>11.43047752106192</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>12.00486129039172</v>
+        <v>14.85185859674984</v>
       </c>
       <c r="C229">
-        <v>16.42751662513134</v>
+        <v>7.656408209420544</v>
       </c>
       <c r="D229">
-        <v>0</v>
+        <v>15.66988340135009</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>14.50000992560247</v>
       </c>
       <c r="F229">
-        <v>0</v>
+        <v>11.44864302930197</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>12.02419199436399</v>
+        <v>14.88105445548505</v>
       </c>
       <c r="C230">
-        <v>16.46486958210622</v>
+        <v>7.660557326745311</v>
       </c>
       <c r="D230">
-        <v>0</v>
+        <v>15.70058136251326</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>14.52010270017074</v>
       </c>
       <c r="F230">
-        <v>0</v>
+        <v>11.46665024291612</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>12.04333206569628</v>
+        <v>14.91003318029886</v>
       </c>
       <c r="C231">
-        <v>16.50197186992539</v>
+        <v>7.664693324182569</v>
       </c>
       <c r="D231">
-        <v>0</v>
+        <v>15.73105855135853</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>14.53989063567399</v>
       </c>
       <c r="F231">
-        <v>0</v>
+        <v>11.48450035953878</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>12.06228303004631</v>
+        <v>14.93879680298316</v>
       </c>
       <c r="C232">
-        <v>16.53882547193693</v>
+        <v>7.668816809945634</v>
       </c>
       <c r="D232">
-        <v>0</v>
+        <v>15.76131763192586</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>14.55937657486265</v>
       </c>
       <c r="F232">
-        <v>0</v>
+        <v>11.50219456682349</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>12.08104639915274</v>
+        <v>14.96734733487221</v>
       </c>
       <c r="C233">
-        <v>16.57543235447431</v>
+        <v>7.672928376498862</v>
       </c>
       <c r="D233">
-        <v>0</v>
+        <v>15.7913612356173</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>14.57856333310376</v>
       </c>
       <c r="F233">
-        <v>0</v>
+        <v>11.51973404253177</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>12.09962367092957</v>
+        <v>14.99568676700927</v>
       </c>
       <c r="C234">
-        <v>16.61179446699587</v>
+        <v>7.677028600411333</v>
       </c>
       <c r="D234">
-        <v>0</v>
+        <v>15.82119196152916</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>14.59745369905868</v>
       </c>
       <c r="F234">
-        <v>0</v>
+        <v>11.53711995463934</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>12.11801632959361</v>
+        <v>15.02381707032803</v>
       </c>
       <c r="C235">
-        <v>16.64791374222394</v>
+        <v>7.681118043751414</v>
       </c>
       <c r="D235">
-        <v>0</v>
+        <v>15.85081237649985</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>14.61605043438848</v>
       </c>
       <c r="F235">
-        <v>0</v>
+        <v>11.55435346138413</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>12.13622584577277</v>
+        <v>15.05174019599277</v>
       </c>
       <c r="C236">
-        <v>16.68379209628382</v>
+        <v>7.68519725572732</v>
       </c>
       <c r="D236">
-        <v>0</v>
+        <v>15.88022501766405</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>14.63435627395397</v>
       </c>
       <c r="F236">
-        <v>0</v>
+        <v>11.57143571139786</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>12.1542536766226</v>
+        <v>15.07945807549593</v>
       </c>
       <c r="C237">
-        <v>16.71943142884108</v>
+        <v>7.689266771352014</v>
       </c>
       <c r="D237">
-        <v>0</v>
+        <v>15.90943239101715</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>14.65237392639945</v>
       </c>
       <c r="F237">
-        <v>0</v>
+        <v>11.58836784374645</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>12.17210126594102</v>
+        <v>15.10697262077134</v>
       </c>
       <c r="C238">
-        <v>16.75483362324326</v>
+        <v>7.693327111069645</v>
       </c>
       <c r="D238">
-        <v>0</v>
+        <v>15.93843697205387</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>14.67010607391016</v>
       </c>
       <c r="F238">
-        <v>0</v>
+        <v>11.60515098798112</v>
       </c>
     </row>
   </sheetData>
